--- a/_Out/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/ctc2D/CTC_CLIENT/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10342"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13240" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="229">
   <si>
     <t>Id</t>
   </si>
@@ -204,27 +217,6 @@
     <t>毒属性宝石！</t>
   </si>
   <si>
-    <t>Desc_HeroCard_1</t>
-  </si>
-  <si>
-    <t>英雄卡片，使用获得英雄或者增加经验。</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_2</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_3</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_4</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_5</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_6</t>
-  </si>
-  <si>
     <t>NameID_HOLY_WATER</t>
   </si>
   <si>
@@ -595,19 +587,148 @@
   </si>
   <si>
     <t>BUFF免疫开关</t>
+  </si>
+  <si>
+    <t>NameID_Abaddon</t>
+  </si>
+  <si>
+    <t>NameID_Beastmaster</t>
+  </si>
+  <si>
+    <t>NameID_BountyHunter</t>
+  </si>
+  <si>
+    <t>NameID_Bristleback</t>
+  </si>
+  <si>
+    <t>NameID_Clinkz</t>
+  </si>
+  <si>
+    <t>NameID_CrystalMaiden</t>
+  </si>
+  <si>
+    <t>NameID_Ezalor</t>
+  </si>
+  <si>
+    <t>NameID_Lifestealer</t>
+  </si>
+  <si>
+    <t>NameID_TeaantProtector</t>
+  </si>
+  <si>
+    <t>Abaddon</t>
+  </si>
+  <si>
+    <t>Beastmaster</t>
+  </si>
+  <si>
+    <t>BountyHunter</t>
+  </si>
+  <si>
+    <t>Bristleback</t>
+  </si>
+  <si>
+    <t>Clinkz</t>
+  </si>
+  <si>
+    <t>CrystalMaiden</t>
+  </si>
+  <si>
+    <t>Ezalor</t>
+  </si>
+  <si>
+    <t>Lifestealer</t>
+  </si>
+  <si>
+    <t>TeaantProtector</t>
+  </si>
+  <si>
+    <t>亚巴顿</t>
+  </si>
+  <si>
+    <t>兽王</t>
+  </si>
+  <si>
+    <t>赏金猎人</t>
+  </si>
+  <si>
+    <t>钢背熊</t>
+  </si>
+  <si>
+    <t>克林丽兹</t>
+  </si>
+  <si>
+    <t>水晶室女</t>
+  </si>
+  <si>
+    <t>食尸鬼</t>
+  </si>
+  <si>
+    <t>树精卫士</t>
+  </si>
+  <si>
+    <t>光之守卫</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Abaddon</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Beastmaster</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_BountyHunter</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Bristleback</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Clinkz</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_CrystalMaiden</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Ezalor</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Lifestealer</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_TeaantProtector</t>
+  </si>
+  <si>
+    <t>亚巴顿是一个英雄</t>
+  </si>
+  <si>
+    <t>兽王是一个英雄</t>
+  </si>
+  <si>
+    <t>赏金猎人是一个英雄</t>
+  </si>
+  <si>
+    <t>钢背熊是一个英雄</t>
+  </si>
+  <si>
+    <t>克林丽兹是一个英雄</t>
+  </si>
+  <si>
+    <t>水晶室女是一个英雄</t>
+  </si>
+  <si>
+    <t>光之守卫是一个英雄</t>
+  </si>
+  <si>
+    <t>食尸鬼是一个英雄</t>
+  </si>
+  <si>
+    <t>树精卫士是一个英雄</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -621,159 +742,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,198 +770,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1128,255 +924,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1437,59 +991,23 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1816,29 +1334,28 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="$A16:$XFD24"/>
+      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.8318584070796" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.5044247787611" style="10" customWidth="1"/>
-    <col min="3" max="3" width="31.6637168141593" style="10" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -1860,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1871,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -1904,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:3">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:3">
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1926,14 +1443,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:3">
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
@@ -1944,7 +1461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:3">
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +1472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:3">
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
         <v>18</v>
       </c>
@@ -1966,7 +1483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:3">
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
         <v>21</v>
       </c>
@@ -1977,7 +1494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:3">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
@@ -1988,7 +1505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" spans="1:3">
+    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
@@ -1999,7 +1516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" spans="1:3">
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -2007,7 +1524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
@@ -2015,7 +1532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
@@ -2023,7 +1540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
@@ -2031,7 +1548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" spans="1:3">
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
@@ -2039,7 +1556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" spans="1:3">
+    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
@@ -2047,7 +1564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" spans="1:3">
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -2055,7 +1572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" spans="1:3">
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -2063,7 +1580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" s="8" customFormat="1" spans="1:3">
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>46</v>
       </c>
@@ -2071,7 +1588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="1" spans="1:3">
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
@@ -2079,7 +1596,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" spans="1:3">
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
@@ -2087,7 +1604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" spans="1:3">
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
@@ -2095,7 +1612,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="1" spans="1:3">
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>54</v>
       </c>
@@ -2103,7 +1620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" s="8" customFormat="1" spans="1:3">
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>56</v>
       </c>
@@ -2111,7 +1628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" s="8" customFormat="1" spans="1:3">
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>58</v>
       </c>
@@ -2119,572 +1636,722 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="1" spans="1:3">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" s="8" customFormat="1" spans="1:3">
-      <c r="A32" s="8" t="s">
+    <row r="50" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" s="8" customFormat="1" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" s="8" customFormat="1" spans="1:3">
-      <c r="A34" s="8" t="s">
+    </row>
+    <row r="51" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" s="8" customFormat="1" spans="1:3">
-      <c r="A35" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" s="8" customFormat="1" spans="1:3">
-      <c r="A36" s="8" t="s">
+    </row>
+    <row r="52" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" s="9" customFormat="1" spans="1:3">
-      <c r="A37" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="9" t="s">
+    </row>
+    <row r="53" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" s="9" customFormat="1" spans="1:3">
-      <c r="A38" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="9" t="s">
+    </row>
+    <row r="54" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" s="9" customFormat="1" spans="1:3">
-      <c r="A39" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="9" t="s">
+    </row>
+    <row r="55" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" s="9" customFormat="1" spans="1:3">
-      <c r="A40" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="9" t="s">
+    </row>
+    <row r="56" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" s="9" customFormat="1" spans="1:3">
-      <c r="A41" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="9" t="s">
+    </row>
+    <row r="57" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" s="9" customFormat="1" spans="1:3">
-      <c r="A42" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="9" t="s">
+    </row>
+    <row r="58" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" s="9" customFormat="1" spans="1:3">
-      <c r="A43" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="9" t="s">
+    </row>
+    <row r="59" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" s="9" customFormat="1" spans="1:3">
-      <c r="A44" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="9" t="s">
+    </row>
+    <row r="60" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" s="9" customFormat="1" spans="1:3">
-      <c r="A45" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="9" t="s">
+    </row>
+    <row r="61" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" s="9" customFormat="1" spans="1:3">
-      <c r="A46" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="9" t="s">
+    </row>
+    <row r="62" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" s="9" customFormat="1" spans="1:3">
-      <c r="A47" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="9" t="s">
+    </row>
+    <row r="63" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" s="9" customFormat="1" spans="1:3">
-      <c r="A48" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="9" t="s">
+    </row>
+    <row r="64" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" s="9" customFormat="1" spans="1:3">
-      <c r="A49" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="9" t="s">
+    </row>
+    <row r="65" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" s="9" customFormat="1" spans="1:3">
-      <c r="A50" s="9" t="s">
+      <c r="C65" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C66" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" s="9" customFormat="1" spans="1:3">
-      <c r="A51" s="9" t="s">
+      <c r="C67" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C68" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" s="9" customFormat="1" spans="1:3">
-      <c r="A52" s="9" t="s">
+      <c r="C69" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="B70" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" s="9" customFormat="1" spans="1:3">
-      <c r="A53" s="9" t="s">
+    <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" s="9" customFormat="1" spans="1:3">
-      <c r="A54" s="9" t="s">
+      <c r="B71" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" s="9" customFormat="1" spans="1:3">
-      <c r="A55" s="9" t="s">
+    </row>
+    <row r="72" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" s="9" customFormat="1" spans="1:3">
-      <c r="A56" s="9" t="s">
+      <c r="B72" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" s="9" customFormat="1" spans="1:3">
-      <c r="A57" s="9" t="s">
+    </row>
+    <row r="73" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" s="5" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A58" s="19" t="s">
+      <c r="B73" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="4" t="s">
+    </row>
+    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="18" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="59" s="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A59" s="18" t="s">
+      <c r="B74" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="4" t="s">
+    </row>
+    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="18" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" s="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A60" s="18" t="s">
+      <c r="B75" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="4" t="s">
+    </row>
+    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="61" s="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A61" s="18" t="s">
+      <c r="B76" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="4" t="s">
+    </row>
+    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" s="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A62" s="18" t="s">
+      <c r="B77" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="4" t="s">
+    </row>
+    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="63" s="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A63" s="18" t="s">
+      <c r="B78" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="4" t="s">
+    </row>
+    <row r="79" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="18" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="64" s="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A64" s="18" t="s">
+      <c r="B79" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" s="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A65" s="18" t="s">
+    <row r="80" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="B80" s="19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="66" s="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A66" s="18" t="s">
+      <c r="C80" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="4" t="s">
+    </row>
+    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="67" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A67" s="18" t="s">
+      <c r="B81" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="C81" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="4" t="s">
+    </row>
+    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="68" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A68" s="18" t="s">
+      <c r="B82" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="C82" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="4" t="s">
+    </row>
+    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="18" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="69" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A69" s="18" t="s">
+      <c r="B83" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="C83" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C69" s="4" t="s">
+    </row>
+    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="18" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="70" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A70" s="18" t="s">
+      <c r="B84" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="C84" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="4" t="s">
+    </row>
+    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="71" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A71" s="18" t="s">
+      <c r="B85" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="C85" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="4" t="s">
+    </row>
+    <row r="86" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="18" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="72" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A72" s="18" t="s">
+      <c r="B86" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="C86" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="4" t="s">
+    </row>
+    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="73" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A73" s="18" t="s">
+      <c r="B87" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="C87" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="4" t="s">
+    </row>
+    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="74" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A74" s="18" t="s">
+      <c r="B88" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="C88" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="4" t="s">
+    </row>
+    <row r="89" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A75" s="18" t="s">
+      <c r="B89" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="C89" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="4" t="s">
+    </row>
+    <row r="90" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="18" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A76" s="18" t="s">
+      <c r="B90" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="C90" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="4" t="s">
+    </row>
+    <row r="91" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="18" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A77" s="18" t="s">
+      <c r="B91" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="C91" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="4" t="s">
+    </row>
+    <row r="92" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A78" s="18" t="s">
+      <c r="B92" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="C92" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="4" t="s">
+    </row>
+    <row r="93" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="18" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="79" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A79" s="18" t="s">
+      <c r="B93" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="C93" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="4" t="s">
+    </row>
+    <row r="94" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="18" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="80" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A80" s="18" t="s">
+      <c r="B94" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="C94" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="4" t="s">
+    </row>
+    <row r="95" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="18" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="81" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A81" s="18" t="s">
+      <c r="B95" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="C95" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="4" t="s">
+    </row>
+    <row r="96" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="18" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="82" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A82" s="18" t="s">
+      <c r="B96" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="C96" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="4" t="s">
+    </row>
+    <row r="97" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="18" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="83" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A83" s="18" t="s">
+      <c r="B97" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="C97" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="4" t="s">
+    </row>
+    <row r="98" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="18" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="84" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A84" s="18" t="s">
+      <c r="B98" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="C98" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="4" t="s">
+    </row>
+    <row r="99" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="18" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="85" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A85" s="18" t="s">
+      <c r="B99" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="C99" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C85" s="4" t="s">
+    </row>
+    <row r="100" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="18" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="86" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A86" s="18" t="s">
+      <c r="B100" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="C100" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="4" t="s">
+    </row>
+    <row r="101" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="18" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="87" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A87" s="18" t="s">
+      <c r="B101" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="C101" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A88" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:3">
-      <c r="A89" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2361,7 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/ctc2D/CTC_CLIENT/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13240" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="13238" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -743,7 +743,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,8 +786,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -924,13 +930,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,11 +1160,110 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,6 +1274,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1340,1023 +1611,2539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="9" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="31.796875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="30.46484375" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="9" style="27"/>
+    <col min="19" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="28"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="29"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="b">
+      <c r="C3" s="36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="29"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="b">
+      <c r="C4" s="36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="29"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="b">
+      <c r="C5" s="36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="29"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="b">
+      <c r="C6" s="36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="29"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="1:18" s="3" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="b">
+      <c r="C7" s="37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="30"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="b">
+      <c r="C8" s="37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="30"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1">
       <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="1:18" s="5" customFormat="1">
+      <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" s="6" customFormat="1">
+      <c r="A11" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:18" s="6" customFormat="1">
+      <c r="A12" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="1:18" s="6" customFormat="1">
+      <c r="A13" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="1:18" s="6" customFormat="1">
+      <c r="A14" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="42" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="1:18" s="6" customFormat="1">
+      <c r="A15" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="42" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:18" s="7" customFormat="1">
+      <c r="A16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="1:18" s="8" customFormat="1">
+      <c r="A17" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="46" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="1:18" s="8" customFormat="1">
+      <c r="A18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="1:18" s="8" customFormat="1">
+      <c r="A19" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="46" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="1:18" s="8" customFormat="1">
+      <c r="A20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+    </row>
+    <row r="21" spans="1:18" s="8" customFormat="1">
+      <c r="A21" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="1:18" s="8" customFormat="1">
+      <c r="A22" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+    </row>
+    <row r="23" spans="1:18" s="8" customFormat="1">
+      <c r="A23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+    </row>
+    <row r="24" spans="1:18" s="8" customFormat="1">
+      <c r="A24" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+    </row>
+    <row r="25" spans="1:18" s="8" customFormat="1">
+      <c r="A25" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+    </row>
+    <row r="26" spans="1:18" s="8" customFormat="1">
+      <c r="A26" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+    </row>
+    <row r="27" spans="1:18" s="8" customFormat="1">
+      <c r="A27" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+    </row>
+    <row r="28" spans="1:18" s="8" customFormat="1">
+      <c r="A28" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+    </row>
+    <row r="29" spans="1:18" s="8" customFormat="1">
+      <c r="A29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="46" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+    </row>
+    <row r="30" spans="1:18" s="8" customFormat="1">
+      <c r="A30" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="46" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="20" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="1:18" s="8" customFormat="1">
+      <c r="A31" s="47" t="s">
         <v>184</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="46" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="21" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+    </row>
+    <row r="32" spans="1:18" s="8" customFormat="1">
+      <c r="A32" s="48" t="s">
         <v>185</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="46" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+    </row>
+    <row r="33" spans="1:18" s="8" customFormat="1">
+      <c r="A33" s="48" t="s">
         <v>186</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="46" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="21" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+    </row>
+    <row r="34" spans="1:18" s="8" customFormat="1">
+      <c r="A34" s="48" t="s">
         <v>187</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="46" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21" t="s">
+      <c r="D34" s="33"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+    </row>
+    <row r="35" spans="1:18" s="8" customFormat="1">
+      <c r="A35" s="48" t="s">
         <v>188</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="46" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
+      <c r="D35" s="33"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+    </row>
+    <row r="36" spans="1:18" s="8" customFormat="1">
+      <c r="A36" s="48" t="s">
         <v>189</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="46" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="21" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+    </row>
+    <row r="37" spans="1:18" s="8" customFormat="1">
+      <c r="A37" s="48" t="s">
         <v>190</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="46" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="21" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+    </row>
+    <row r="38" spans="1:18" s="8" customFormat="1">
+      <c r="A38" s="48" t="s">
         <v>191</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="46" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="21" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+    </row>
+    <row r="39" spans="1:18" s="8" customFormat="1">
+      <c r="A39" s="48" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="46" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="20" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+    </row>
+    <row r="40" spans="1:18" s="8" customFormat="1">
+      <c r="A40" s="47" t="s">
         <v>211</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="46" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="21" t="s">
+      <c r="D40" s="33"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+    </row>
+    <row r="41" spans="1:18" s="8" customFormat="1">
+      <c r="A41" s="48" t="s">
         <v>212</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="46" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="21" t="s">
+      <c r="D41" s="33"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+    </row>
+    <row r="42" spans="1:18" s="8" customFormat="1">
+      <c r="A42" s="48" t="s">
         <v>213</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="46" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="21" t="s">
+      <c r="D42" s="33"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+    </row>
+    <row r="43" spans="1:18" s="8" customFormat="1">
+      <c r="A43" s="48" t="s">
         <v>214</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="46" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="21" t="s">
+      <c r="D43" s="33"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+    </row>
+    <row r="44" spans="1:18" s="8" customFormat="1">
+      <c r="A44" s="48" t="s">
         <v>215</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="46" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="21" t="s">
+      <c r="D44" s="33"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+    </row>
+    <row r="45" spans="1:18" s="8" customFormat="1">
+      <c r="A45" s="48" t="s">
         <v>216</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="46" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="21" t="s">
+      <c r="D45" s="33"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+    </row>
+    <row r="46" spans="1:18" s="8" customFormat="1">
+      <c r="A46" s="48" t="s">
         <v>217</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="46" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="21" t="s">
+      <c r="D46" s="33"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+    </row>
+    <row r="47" spans="1:18" s="8" customFormat="1">
+      <c r="A47" s="48" t="s">
         <v>218</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="46" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="21" t="s">
+      <c r="D47" s="33"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+    </row>
+    <row r="48" spans="1:18" s="8" customFormat="1">
+      <c r="A48" s="48" t="s">
         <v>219</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="46" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="9" t="s">
+      <c r="D48" s="33"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+    </row>
+    <row r="49" spans="1:18" s="9" customFormat="1">
+      <c r="A49" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="50" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="9" t="s">
+      <c r="D49" s="33"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+    </row>
+    <row r="50" spans="1:18" s="9" customFormat="1">
+      <c r="A50" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="50" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
+      <c r="D50" s="33"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+    </row>
+    <row r="51" spans="1:18" s="9" customFormat="1">
+      <c r="A51" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="50" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
+      <c r="D51" s="33"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+    </row>
+    <row r="52" spans="1:18" s="9" customFormat="1">
+      <c r="A52" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="50" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="9" t="s">
+      <c r="D52" s="33"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+    </row>
+    <row r="53" spans="1:18" s="9" customFormat="1">
+      <c r="A53" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="50" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="9" t="s">
+      <c r="D53" s="33"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+    </row>
+    <row r="54" spans="1:18" s="9" customFormat="1">
+      <c r="A54" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="50" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="9" t="s">
+      <c r="D54" s="33"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+    </row>
+    <row r="55" spans="1:18" s="9" customFormat="1">
+      <c r="A55" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="50" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="9" t="s">
+      <c r="D55" s="33"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+    </row>
+    <row r="56" spans="1:18" s="9" customFormat="1">
+      <c r="A56" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="50" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="9" t="s">
+      <c r="D56" s="33"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+    </row>
+    <row r="57" spans="1:18" s="9" customFormat="1">
+      <c r="A57" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="50" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="9" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+    </row>
+    <row r="58" spans="1:18" s="9" customFormat="1">
+      <c r="A58" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="50" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="9" t="s">
+      <c r="D58" s="33"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+    </row>
+    <row r="59" spans="1:18" s="9" customFormat="1">
+      <c r="A59" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="50" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="9" t="s">
+      <c r="D59" s="33"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+    </row>
+    <row r="60" spans="1:18" s="9" customFormat="1">
+      <c r="A60" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="50" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="9" t="s">
+      <c r="D60" s="33"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+    </row>
+    <row r="61" spans="1:18" s="9" customFormat="1">
+      <c r="A61" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="50" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+      <c r="D61" s="33"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+    </row>
+    <row r="62" spans="1:18" s="9" customFormat="1">
+      <c r="A62" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="50" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="9" t="s">
+      <c r="D62" s="33"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+    </row>
+    <row r="63" spans="1:18" s="9" customFormat="1">
+      <c r="A63" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="50" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="9" t="s">
+      <c r="D63" s="33"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+    </row>
+    <row r="64" spans="1:18" s="9" customFormat="1">
+      <c r="A64" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="9" t="s">
+      <c r="D64" s="33"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+    </row>
+    <row r="65" spans="1:18" s="9" customFormat="1">
+      <c r="A65" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
+      <c r="D65" s="33"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+    </row>
+    <row r="66" spans="1:18" s="9" customFormat="1">
+      <c r="A66" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
+      <c r="D66" s="33"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+    </row>
+    <row r="67" spans="1:18" s="9" customFormat="1">
+      <c r="A67" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
+      <c r="D67" s="33"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+    </row>
+    <row r="68" spans="1:18" s="9" customFormat="1">
+      <c r="A68" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
+      <c r="D68" s="33"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+    </row>
+    <row r="69" spans="1:18" s="9" customFormat="1">
+      <c r="A69" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="19" t="s">
+      <c r="D69" s="33"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+    </row>
+    <row r="70" spans="1:18" s="5" customFormat="1">
+      <c r="A70" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="51" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="18" t="s">
+      <c r="D70" s="32"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+    </row>
+    <row r="71" spans="1:18" s="6" customFormat="1">
+      <c r="A71" s="39" t="s">
         <v>99</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="51" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="18" t="s">
+      <c r="D71" s="33"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+    </row>
+    <row r="72" spans="1:18" s="6" customFormat="1">
+      <c r="A72" s="39" t="s">
         <v>101</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="51" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="18" t="s">
+      <c r="D72" s="33"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+    </row>
+    <row r="73" spans="1:18" s="6" customFormat="1">
+      <c r="A73" s="39" t="s">
         <v>103</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="51" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="18" t="s">
+      <c r="D73" s="33"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+    </row>
+    <row r="74" spans="1:18" s="6" customFormat="1">
+      <c r="A74" s="39" t="s">
         <v>105</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="51" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="18" t="s">
+      <c r="D74" s="33"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+    </row>
+    <row r="75" spans="1:18" s="6" customFormat="1">
+      <c r="A75" s="39" t="s">
         <v>107</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="51" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="18" t="s">
+      <c r="D75" s="33"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+    </row>
+    <row r="76" spans="1:18" s="6" customFormat="1">
+      <c r="A76" s="39" t="s">
         <v>109</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="51" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="18" t="s">
+      <c r="D76" s="33"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+    </row>
+    <row r="77" spans="1:18" s="6" customFormat="1">
+      <c r="A77" s="39" t="s">
         <v>111</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="51" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="18" t="s">
+      <c r="D77" s="33"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+    </row>
+    <row r="78" spans="1:18" s="6" customFormat="1">
+      <c r="A78" s="39" t="s">
         <v>113</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="51" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="18" t="s">
+      <c r="D78" s="33"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+    </row>
+    <row r="79" spans="1:18" customFormat="1">
+      <c r="A79" s="39" t="s">
         <v>115</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="51" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="18" t="s">
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+    </row>
+    <row r="80" spans="1:18" customFormat="1">
+      <c r="A80" s="39" t="s">
         <v>118</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="51" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="18" t="s">
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26"/>
+    </row>
+    <row r="81" spans="1:18" customFormat="1">
+      <c r="A81" s="39" t="s">
         <v>121</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="51" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="18" t="s">
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26"/>
+    </row>
+    <row r="82" spans="1:18" customFormat="1">
+      <c r="A82" s="39" t="s">
         <v>124</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="51" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="18" t="s">
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+    </row>
+    <row r="83" spans="1:18" customFormat="1">
+      <c r="A83" s="39" t="s">
         <v>127</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="51" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="18" t="s">
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+    </row>
+    <row r="84" spans="1:18" customFormat="1">
+      <c r="A84" s="39" t="s">
         <v>130</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="51" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="18" t="s">
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26"/>
+    </row>
+    <row r="85" spans="1:18" customFormat="1">
+      <c r="A85" s="39" t="s">
         <v>133</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="51" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="18" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26"/>
+    </row>
+    <row r="86" spans="1:18" customFormat="1">
+      <c r="A86" s="39" t="s">
         <v>136</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="51" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="18" t="s">
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+    </row>
+    <row r="87" spans="1:18" customFormat="1">
+      <c r="A87" s="39" t="s">
         <v>139</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="51" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="18" t="s">
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26"/>
+      <c r="R87" s="26"/>
+    </row>
+    <row r="88" spans="1:18" customFormat="1">
+      <c r="A88" s="39" t="s">
         <v>142</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="51" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="18" t="s">
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26"/>
+    </row>
+    <row r="89" spans="1:18" customFormat="1">
+      <c r="A89" s="39" t="s">
         <v>145</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="51" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="18" t="s">
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+    </row>
+    <row r="90" spans="1:18" customFormat="1">
+      <c r="A90" s="39" t="s">
         <v>148</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="51" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="18" t="s">
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26"/>
+    </row>
+    <row r="91" spans="1:18" customFormat="1">
+      <c r="A91" s="39" t="s">
         <v>151</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="51" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="18" t="s">
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+    </row>
+    <row r="92" spans="1:18" customFormat="1">
+      <c r="A92" s="39" t="s">
         <v>154</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="51" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="18" t="s">
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+    </row>
+    <row r="93" spans="1:18" customFormat="1">
+      <c r="A93" s="39" t="s">
         <v>157</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="51" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="18" t="s">
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+    </row>
+    <row r="94" spans="1:18" customFormat="1">
+      <c r="A94" s="39" t="s">
         <v>160</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="51" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="18" t="s">
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="26"/>
+    </row>
+    <row r="95" spans="1:18" customFormat="1">
+      <c r="A95" s="39" t="s">
         <v>163</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="51" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="18" t="s">
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="26"/>
+    </row>
+    <row r="96" spans="1:18" customFormat="1">
+      <c r="A96" s="39" t="s">
         <v>166</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="51" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="18" t="s">
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
+    </row>
+    <row r="97" spans="1:18" customFormat="1">
+      <c r="A97" s="39" t="s">
         <v>169</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="51" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="18" t="s">
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="26"/>
+    </row>
+    <row r="98" spans="1:18" customFormat="1">
+      <c r="A98" s="39" t="s">
         <v>172</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="51" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="18" t="s">
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26"/>
+    </row>
+    <row r="99" spans="1:18" customFormat="1">
+      <c r="A99" s="39" t="s">
         <v>175</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="51" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="18" t="s">
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="26"/>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26"/>
+    </row>
+    <row r="100" spans="1:18" customFormat="1">
+      <c r="A100" s="39" t="s">
         <v>178</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="51" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="18" t="s">
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="26"/>
+      <c r="P100" s="26"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26"/>
+    </row>
+    <row r="101" spans="1:18" customFormat="1">
+      <c r="A101" s="39" t="s">
         <v>181</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="36" t="s">
         <v>183</v>
       </c>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="26"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="26"/>
+      <c r="P101" s="26"/>
+      <c r="Q101" s="26"/>
+      <c r="R101" s="26"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:J8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:C8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>

--- a/_Out/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="301">
   <si>
     <t>Id</t>
   </si>
@@ -574,9 +574,6 @@
     <t>LPID_MAGIC_GATE</t>
   </si>
   <si>
-    <t>Langage_28</t>
-  </si>
-  <si>
     <t>魔法免疫开关</t>
   </si>
   <si>
@@ -722,6 +719,225 @@
   </si>
   <si>
     <t>树精卫士是一个英雄</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_1</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_2</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_3</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>NameID_townhall_1</t>
+  </si>
+  <si>
+    <t>NameID_townhall_2</t>
+  </si>
+  <si>
+    <t>NameID_townhall_3</t>
+  </si>
+  <si>
+    <t>NameID_camp_1</t>
+  </si>
+  <si>
+    <t>NameID_camp_2</t>
+  </si>
+  <si>
+    <t>NameID_camp_3</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_1</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_2</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_3</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_1</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_2</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_3</t>
+  </si>
+  <si>
+    <t>NameID_barrack_1</t>
+  </si>
+  <si>
+    <t>NameID_barrack_2</t>
+  </si>
+  <si>
+    <t>NameID_barrack_3</t>
+  </si>
+  <si>
+    <t>NameID_bomb_1</t>
+  </si>
+  <si>
+    <t>NameID_bomb_2</t>
+  </si>
+  <si>
+    <t>NameID_bomb_3</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_1</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_2</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_3</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_1</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_2</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_3</t>
+  </si>
+  <si>
+    <t>Desc_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>Desc_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>Desc_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>Desc_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Desc_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Desc_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Desc_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>Desc_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>Desc_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>Desc_townhall_1</t>
+  </si>
+  <si>
+    <t>Desc_townhall_2</t>
+  </si>
+  <si>
+    <t>Desc_townhall_3</t>
+  </si>
+  <si>
+    <t>Desc_camp_1</t>
+  </si>
+  <si>
+    <t>Desc_camp_2</t>
+  </si>
+  <si>
+    <t>Desc_camp_3</t>
+  </si>
+  <si>
+    <t>Desc_gold_storage_1</t>
+  </si>
+  <si>
+    <t>Desc_gold_storage_2</t>
+  </si>
+  <si>
+    <t>Desc_gold_storage_3</t>
+  </si>
+  <si>
+    <t>Desc_mana_storage_1</t>
+  </si>
+  <si>
+    <t>Desc_mana_storage_2</t>
+  </si>
+  <si>
+    <t>Desc_mana_storage_3</t>
+  </si>
+  <si>
+    <t>Desc_barrack_1</t>
+  </si>
+  <si>
+    <t>Desc_barrack_2</t>
+  </si>
+  <si>
+    <t>Desc_barrack_3</t>
+  </si>
+  <si>
+    <t>Desc_bomb_1</t>
+  </si>
+  <si>
+    <t>Desc_bomb_2</t>
+  </si>
+  <si>
+    <t>Desc_bomb_3</t>
+  </si>
+  <si>
+    <t>Desc_worker_hut_1</t>
+  </si>
+  <si>
+    <t>Desc_worker_hut_2</t>
+  </si>
+  <si>
+    <t>Desc_worker_hut_3</t>
+  </si>
+  <si>
+    <t>Desc_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>Desc_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>Desc_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>Desc_mana_well_1</t>
+  </si>
+  <si>
+    <t>Desc_mana_well_2</t>
+  </si>
+  <si>
+    <t>Desc_mana_well_3</t>
+  </si>
+  <si>
+    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -743,7 +959,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,6 +1002,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -1032,7 +1254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,6 +1376,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,11 +1727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:S1048576"/>
+      <pane ySplit="9" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1800,200 +2025,200 @@
     </row>
     <row r="31" spans="1:3" s="8" customFormat="1">
       <c r="A31" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="8" customFormat="1">
       <c r="A32" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="8" customFormat="1">
       <c r="A33" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="8" customFormat="1">
       <c r="A34" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="8" customFormat="1">
       <c r="A35" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="8" customFormat="1">
       <c r="A36" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="8" customFormat="1">
       <c r="A37" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="8" customFormat="1">
       <c r="A38" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="8" customFormat="1">
       <c r="A39" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="8" customFormat="1">
       <c r="A40" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="8" customFormat="1">
       <c r="A41" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="8" customFormat="1">
       <c r="A42" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="8" customFormat="1">
       <c r="A43" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="8" customFormat="1">
       <c r="A44" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="8" customFormat="1">
       <c r="A45" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="8" customFormat="1">
       <c r="A46" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="8" customFormat="1">
       <c r="A47" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="8" customFormat="1">
       <c r="A48" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="9" customFormat="1">
@@ -2499,22 +2724,526 @@
         <v>178</v>
       </c>
       <c r="B100" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" s="37" t="s">
         <v>179</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:3" customFormat="1">
       <c r="A101" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="C101" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C101" s="22" t="s">
-        <v>183</v>
-      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="41"/>
+      <c r="C117" s="41"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" s="41"/>
+      <c r="C120" s="41"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="41"/>
+      <c r="C125" s="41"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="41"/>
+      <c r="C131" s="41"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="41"/>
+      <c r="C132" s="41"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="41"/>
+      <c r="C133" s="41"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" s="41"/>
+      <c r="C135" s="41"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" s="41"/>
+      <c r="C142" s="41"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144" s="41"/>
+      <c r="C144" s="41"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="B145" s="41"/>
+      <c r="C145" s="41"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B148" s="41"/>
+      <c r="C148" s="41"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B149" s="41"/>
+      <c r="C149" s="41"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" s="41"/>
+      <c r="C151" s="41"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B152" s="41"/>
+      <c r="C152" s="41"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B154" s="41"/>
+      <c r="C154" s="41"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B155" s="41"/>
+      <c r="C155" s="41"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B156" s="41"/>
+      <c r="C156" s="41"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="B158" s="41"/>
+      <c r="C158" s="41"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B159" s="41"/>
+      <c r="C159" s="41"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B160" s="41"/>
+      <c r="C160" s="41"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="B161" s="41"/>
+      <c r="C161" s="41"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B162" s="41"/>
+      <c r="C162" s="41"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B163" s="41"/>
+      <c r="C163" s="41"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B164" s="41"/>
+      <c r="C164" s="41"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B165" s="41"/>
+      <c r="C165" s="41"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B166" s="41"/>
+      <c r="C166" s="41"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="B167" s="41"/>
+      <c r="C167" s="41"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B168" s="41"/>
+      <c r="C168" s="41"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="B169" s="41"/>
+      <c r="C169" s="41"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B170" s="41"/>
+      <c r="C170" s="41"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="B171" s="41"/>
+      <c r="C171" s="41"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/_Out/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/NFDataCfg/Excel_Ini/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="13238" windowHeight="17543"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="337">
   <si>
     <t>Id</t>
   </si>
@@ -938,13 +938,121 @@
   </si>
   <si>
     <t>sss</t>
+  </si>
+  <si>
+    <t>火龙炮(一级)</t>
+  </si>
+  <si>
+    <t>火龙炮(二级)</t>
+  </si>
+  <si>
+    <t>火龙炮(三级)</t>
+  </si>
+  <si>
+    <t>金矿(一级)</t>
+  </si>
+  <si>
+    <t>金矿(二级)</t>
+  </si>
+  <si>
+    <t>金矿(三级)</t>
+  </si>
+  <si>
+    <t>箭塔(一级)</t>
+  </si>
+  <si>
+    <t>箭塔(二级)</t>
+  </si>
+  <si>
+    <t>箭塔(三级)</t>
+  </si>
+  <si>
+    <t>庇护所(一级)</t>
+  </si>
+  <si>
+    <t>庇护所(二级)</t>
+  </si>
+  <si>
+    <t>庇护所(三级)</t>
+  </si>
+  <si>
+    <t>军营(一级)</t>
+  </si>
+  <si>
+    <t>军营(二级)</t>
+  </si>
+  <si>
+    <t>军营(三级)</t>
+  </si>
+  <si>
+    <t>储金罐(一级)</t>
+  </si>
+  <si>
+    <t>储金罐(二级)</t>
+  </si>
+  <si>
+    <t>储金罐(三级)</t>
+  </si>
+  <si>
+    <t>圣水瓶(一级)</t>
+  </si>
+  <si>
+    <t>圣水瓶(二级)</t>
+  </si>
+  <si>
+    <t>圣水瓶(三级)</t>
+  </si>
+  <si>
+    <t>炸弹(一级)</t>
+  </si>
+  <si>
+    <t>炸弹(二级)</t>
+  </si>
+  <si>
+    <t>炸弹(三级)</t>
+  </si>
+  <si>
+    <t>铁匠铺(一级)</t>
+  </si>
+  <si>
+    <t>铁匠铺(二级)</t>
+  </si>
+  <si>
+    <t>铁匠铺(三级)</t>
+  </si>
+  <si>
+    <t>防空火箭(一级)</t>
+  </si>
+  <si>
+    <t>防空火箭(二级)</t>
+  </si>
+  <si>
+    <t>防空火箭(三级)</t>
+  </si>
+  <si>
+    <t>圣水收集器(一级)</t>
+  </si>
+  <si>
+    <t>圣水收集器(二级)</t>
+  </si>
+  <si>
+    <t>圣水收集器(三级)</t>
+  </si>
+  <si>
+    <t>传送营地(一级)</t>
+  </si>
+  <si>
+    <t>传送营地(二级)</t>
+  </si>
+  <si>
+    <t>传送营地(三级)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1151,10 +1259,10 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1166,7 +1274,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1181,7 +1289,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1194,7 +1302,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1206,7 +1314,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -1222,7 +1330,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1232,7 +1340,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1242,7 +1350,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1730,19 +1838,19 @@
   <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <pane ySplit="9" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="24.46484375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="30.46484375" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -1808,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -1819,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1">
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1830,14 +1938,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:3" s="5" customFormat="1">
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>12</v>
       </c>
@@ -1848,7 +1956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
         <v>15</v>
       </c>
@@ -1859,7 +1967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="6" customFormat="1">
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
         <v>18</v>
       </c>
@@ -1870,7 +1978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
         <v>21</v>
       </c>
@@ -1881,7 +1989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
         <v>24</v>
       </c>
@@ -1892,7 +2000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
         <v>27</v>
       </c>
@@ -1903,7 +2011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1">
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
         <v>30</v>
       </c>
@@ -1911,7 +2019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="8" customFormat="1">
+    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +2027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1">
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>34</v>
       </c>
@@ -1927,7 +2035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1">
+    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>36</v>
       </c>
@@ -1935,7 +2043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1">
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
         <v>38</v>
       </c>
@@ -1943,7 +2051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1">
+    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>40</v>
       </c>
@@ -1951,7 +2059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1">
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>42</v>
       </c>
@@ -1959,7 +2067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1">
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>44</v>
       </c>
@@ -1967,7 +2075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1">
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
         <v>46</v>
       </c>
@@ -1975,7 +2083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1">
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>48</v>
       </c>
@@ -1983,7 +2091,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1">
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
         <v>50</v>
       </c>
@@ -1991,7 +2099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1">
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
         <v>52</v>
       </c>
@@ -1999,7 +2107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1">
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31" t="s">
         <v>54</v>
       </c>
@@ -2007,7 +2115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="8" customFormat="1">
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
         <v>56</v>
       </c>
@@ -2015,7 +2123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1">
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31" t="s">
         <v>58</v>
       </c>
@@ -2023,7 +2131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1">
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="33" t="s">
         <v>183</v>
       </c>
@@ -2034,7 +2142,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1">
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34" t="s">
         <v>184</v>
       </c>
@@ -2045,7 +2153,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="8" customFormat="1">
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34" t="s">
         <v>185</v>
       </c>
@@ -2056,7 +2164,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="8" customFormat="1">
+    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="34" t="s">
         <v>186</v>
       </c>
@@ -2067,7 +2175,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="8" customFormat="1">
+    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="34" t="s">
         <v>187</v>
       </c>
@@ -2078,7 +2186,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="8" customFormat="1">
+    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="34" t="s">
         <v>188</v>
       </c>
@@ -2089,7 +2197,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="8" customFormat="1">
+    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="34" t="s">
         <v>189</v>
       </c>
@@ -2100,7 +2208,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="8" customFormat="1">
+    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="34" t="s">
         <v>190</v>
       </c>
@@ -2111,7 +2219,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="8" customFormat="1">
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="34" t="s">
         <v>191</v>
       </c>
@@ -2122,7 +2230,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="8" customFormat="1">
+    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="33" t="s">
         <v>210</v>
       </c>
@@ -2133,7 +2241,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="8" customFormat="1">
+    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="34" t="s">
         <v>211</v>
       </c>
@@ -2144,7 +2252,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="8" customFormat="1">
+    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="34" t="s">
         <v>212</v>
       </c>
@@ -2155,7 +2263,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="8" customFormat="1">
+    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="34" t="s">
         <v>213</v>
       </c>
@@ -2166,7 +2274,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="8" customFormat="1">
+    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
         <v>214</v>
       </c>
@@ -2177,7 +2285,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="8" customFormat="1">
+    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
         <v>215</v>
       </c>
@@ -2188,7 +2296,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="8" customFormat="1">
+    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34" t="s">
         <v>216</v>
       </c>
@@ -2199,7 +2307,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="8" customFormat="1">
+    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34" t="s">
         <v>217</v>
       </c>
@@ -2210,7 +2318,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="8" customFormat="1">
+    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
         <v>218</v>
       </c>
@@ -2221,7 +2329,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="9" customFormat="1">
+    <row r="49" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="35" t="s">
         <v>60</v>
       </c>
@@ -2229,7 +2337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="9" customFormat="1">
+    <row r="50" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="35" t="s">
         <v>62</v>
       </c>
@@ -2237,7 +2345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="9" customFormat="1">
+    <row r="51" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="35" t="s">
         <v>64</v>
       </c>
@@ -2245,7 +2353,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="9" customFormat="1">
+    <row r="52" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="35" t="s">
         <v>66</v>
       </c>
@@ -2253,7 +2361,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="9" customFormat="1">
+    <row r="53" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35" t="s">
         <v>68</v>
       </c>
@@ -2261,7 +2369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="9" customFormat="1">
+    <row r="54" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="35" t="s">
         <v>70</v>
       </c>
@@ -2269,7 +2377,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="9" customFormat="1">
+    <row r="55" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="35" t="s">
         <v>72</v>
       </c>
@@ -2277,7 +2385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="9" customFormat="1">
+    <row r="56" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="35" t="s">
         <v>74</v>
       </c>
@@ -2285,7 +2393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="9" customFormat="1">
+    <row r="57" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="35" t="s">
         <v>76</v>
       </c>
@@ -2293,7 +2401,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="9" customFormat="1">
+    <row r="58" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35" t="s">
         <v>78</v>
       </c>
@@ -2301,7 +2409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="9" customFormat="1">
+    <row r="59" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="35" t="s">
         <v>80</v>
       </c>
@@ -2309,7 +2417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="9" customFormat="1">
+    <row r="60" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="35" t="s">
         <v>82</v>
       </c>
@@ -2317,7 +2425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="9" customFormat="1">
+    <row r="61" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="35" t="s">
         <v>84</v>
       </c>
@@ -2325,7 +2433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="9" customFormat="1">
+    <row r="62" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="35" t="s">
         <v>86</v>
       </c>
@@ -2333,7 +2441,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="9" customFormat="1">
+    <row r="63" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="35" t="s">
         <v>88</v>
       </c>
@@ -2341,7 +2449,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="9" customFormat="1">
+    <row r="64" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="35" t="s">
         <v>90</v>
       </c>
@@ -2349,7 +2457,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="9" customFormat="1">
+    <row r="65" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="35" t="s">
         <v>92</v>
       </c>
@@ -2357,7 +2465,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="9" customFormat="1">
+    <row r="66" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="35" t="s">
         <v>93</v>
       </c>
@@ -2365,7 +2473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="9" customFormat="1">
+    <row r="67" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="35" t="s">
         <v>94</v>
       </c>
@@ -2373,7 +2481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="9" customFormat="1">
+    <row r="68" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="35" t="s">
         <v>95</v>
       </c>
@@ -2381,7 +2489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="9" customFormat="1">
+    <row r="69" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="35" t="s">
         <v>96</v>
       </c>
@@ -2389,7 +2497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1">
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="27" t="s">
         <v>97</v>
       </c>
@@ -2400,7 +2508,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="6" customFormat="1">
+    <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="25" t="s">
         <v>99</v>
       </c>
@@ -2411,7 +2519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="6" customFormat="1">
+    <row r="72" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="25" t="s">
         <v>101</v>
       </c>
@@ -2422,7 +2530,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="6" customFormat="1">
+    <row r="73" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="25" t="s">
         <v>103</v>
       </c>
@@ -2433,7 +2541,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="6" customFormat="1">
+    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="25" t="s">
         <v>105</v>
       </c>
@@ -2444,7 +2552,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="6" customFormat="1">
+    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="25" t="s">
         <v>107</v>
       </c>
@@ -2455,7 +2563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="6" customFormat="1">
+    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="25" t="s">
         <v>109</v>
       </c>
@@ -2466,7 +2574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="6" customFormat="1">
+    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="25" t="s">
         <v>111</v>
       </c>
@@ -2477,7 +2585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="6" customFormat="1">
+    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="25" t="s">
         <v>113</v>
       </c>
@@ -2488,7 +2596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:3" customFormat="1">
+    <row r="79" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="25" t="s">
         <v>115</v>
       </c>
@@ -2499,7 +2607,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:3" customFormat="1">
+    <row r="80" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="25" t="s">
         <v>118</v>
       </c>
@@ -2510,7 +2618,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:3" customFormat="1">
+    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="25" t="s">
         <v>121</v>
       </c>
@@ -2521,7 +2629,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="1:3" customFormat="1">
+    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="25" t="s">
         <v>124</v>
       </c>
@@ -2532,7 +2640,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:3" customFormat="1">
+    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="25" t="s">
         <v>127</v>
       </c>
@@ -2543,7 +2651,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:3" customFormat="1">
+    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="25" t="s">
         <v>130</v>
       </c>
@@ -2554,7 +2662,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:3" customFormat="1">
+    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="25" t="s">
         <v>133</v>
       </c>
@@ -2565,7 +2673,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:3" customFormat="1">
+    <row r="86" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="25" t="s">
         <v>136</v>
       </c>
@@ -2576,7 +2684,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:3" customFormat="1">
+    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="25" t="s">
         <v>139</v>
       </c>
@@ -2587,7 +2695,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:3" customFormat="1">
+    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="25" t="s">
         <v>142</v>
       </c>
@@ -2598,7 +2706,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:3" customFormat="1">
+    <row r="89" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="25" t="s">
         <v>145</v>
       </c>
@@ -2609,7 +2717,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:3" customFormat="1">
+    <row r="90" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="25" t="s">
         <v>148</v>
       </c>
@@ -2620,7 +2728,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:3" customFormat="1">
+    <row r="91" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="25" t="s">
         <v>151</v>
       </c>
@@ -2631,7 +2739,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:3" customFormat="1">
+    <row r="92" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="25" t="s">
         <v>154</v>
       </c>
@@ -2642,7 +2750,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:3" customFormat="1">
+    <row r="93" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="25" t="s">
         <v>157</v>
       </c>
@@ -2653,7 +2761,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:3" customFormat="1">
+    <row r="94" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="25" t="s">
         <v>160</v>
       </c>
@@ -2664,7 +2772,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:3" customFormat="1">
+    <row r="95" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="25" t="s">
         <v>163</v>
       </c>
@@ -2675,7 +2783,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:3" customFormat="1">
+    <row r="96" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="25" t="s">
         <v>166</v>
       </c>
@@ -2686,7 +2794,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="1:3" customFormat="1">
+    <row r="97" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="25" t="s">
         <v>169</v>
       </c>
@@ -2697,7 +2805,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:3" customFormat="1">
+    <row r="98" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="25" t="s">
         <v>172</v>
       </c>
@@ -2708,7 +2816,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:3" customFormat="1">
+    <row r="99" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="25" t="s">
         <v>175</v>
       </c>
@@ -2719,7 +2827,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:3" customFormat="1">
+    <row r="100" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="25" t="s">
         <v>178</v>
       </c>
@@ -2730,7 +2838,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:3" customFormat="1">
+    <row r="101" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="25" t="s">
         <v>180</v>
       </c>
@@ -2741,513 +2849,657 @@
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="41" t="s">
         <v>228</v>
       </c>
       <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="C102" s="41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="41" t="s">
         <v>229</v>
       </c>
       <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="C103" s="41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="41" t="s">
         <v>230</v>
       </c>
       <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="C104" s="41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="41" t="s">
         <v>231</v>
       </c>
       <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="C105" s="41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="41" t="s">
         <v>232</v>
       </c>
       <c r="B106" s="41"/>
-      <c r="C106" s="41"/>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="C106" s="41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="41" t="s">
         <v>233</v>
       </c>
       <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="C107" s="41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="41" t="s">
         <v>234</v>
       </c>
       <c r="B108" s="41"/>
-      <c r="C108" s="41"/>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="C108" s="41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="41" t="s">
         <v>235</v>
       </c>
       <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="C109" s="41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="41" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="41"/>
-      <c r="C110" s="41"/>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="C110" s="41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="41" t="s">
         <v>237</v>
       </c>
       <c r="B111" s="41"/>
-      <c r="C111" s="41"/>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="C111" s="41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="41" t="s">
         <v>238</v>
       </c>
       <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="C112" s="41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="41" t="s">
         <v>239</v>
       </c>
       <c r="B113" s="41"/>
-      <c r="C113" s="41"/>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="C113" s="41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="41" t="s">
         <v>240</v>
       </c>
       <c r="B114" s="41"/>
-      <c r="C114" s="41"/>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="C114" s="41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="41" t="s">
         <v>241</v>
       </c>
       <c r="B115" s="41"/>
-      <c r="C115" s="41"/>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="C115" s="41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="41" t="s">
         <v>242</v>
       </c>
       <c r="B116" s="41"/>
-      <c r="C116" s="41"/>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="C116" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="41" t="s">
         <v>243</v>
       </c>
       <c r="B117" s="41"/>
-      <c r="C117" s="41"/>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="C117" s="41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="41" t="s">
         <v>244</v>
       </c>
       <c r="B118" s="41"/>
-      <c r="C118" s="41"/>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="C118" s="41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="41" t="s">
         <v>245</v>
       </c>
       <c r="B119" s="41"/>
-      <c r="C119" s="41"/>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="C119" s="41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="41" t="s">
         <v>246</v>
       </c>
       <c r="B120" s="41"/>
-      <c r="C120" s="41"/>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="C120" s="41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="41" t="s">
         <v>247</v>
       </c>
       <c r="B121" s="41"/>
-      <c r="C121" s="41"/>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="C121" s="41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="41" t="s">
         <v>248</v>
       </c>
       <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="C122" s="41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="41" t="s">
         <v>249</v>
       </c>
       <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="C123" s="41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="41" t="s">
         <v>250</v>
       </c>
       <c r="B124" s="41"/>
-      <c r="C124" s="41"/>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="C124" s="41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="41" t="s">
         <v>251</v>
       </c>
       <c r="B125" s="41"/>
-      <c r="C125" s="41"/>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="C125" s="41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="41" t="s">
         <v>252</v>
       </c>
       <c r="B126" s="41"/>
-      <c r="C126" s="41"/>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="C126" s="41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="41" t="s">
         <v>253</v>
       </c>
       <c r="B127" s="41"/>
-      <c r="C127" s="41"/>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="C127" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="41" t="s">
         <v>254</v>
       </c>
       <c r="B128" s="41"/>
-      <c r="C128" s="41"/>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="C128" s="41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="41" t="s">
         <v>255</v>
       </c>
       <c r="B129" s="41"/>
-      <c r="C129" s="41"/>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="C129" s="41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="41" t="s">
         <v>256</v>
       </c>
       <c r="B130" s="41"/>
-      <c r="C130" s="41"/>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="C130" s="41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="41" t="s">
         <v>257</v>
       </c>
       <c r="B131" s="41"/>
-      <c r="C131" s="41"/>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="C131" s="41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="41" t="s">
         <v>258</v>
       </c>
       <c r="B132" s="41"/>
-      <c r="C132" s="41"/>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="C132" s="41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="41" t="s">
         <v>259</v>
       </c>
       <c r="B133" s="41"/>
-      <c r="C133" s="41"/>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="C133" s="41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="41" t="s">
         <v>260</v>
       </c>
       <c r="B134" s="41"/>
-      <c r="C134" s="41"/>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="C134" s="41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="41" t="s">
         <v>261</v>
       </c>
       <c r="B135" s="41"/>
-      <c r="C135" s="41"/>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="C135" s="41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="41" t="s">
         <v>262</v>
       </c>
       <c r="B136" s="41"/>
-      <c r="C136" s="41"/>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="C136" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="41" t="s">
         <v>263</v>
       </c>
       <c r="B137" s="41"/>
-      <c r="C137" s="41"/>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="C137" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="41" t="s">
         <v>264</v>
       </c>
       <c r="B138" s="41"/>
-      <c r="C138" s="41"/>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="C138" s="41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="41" t="s">
         <v>265</v>
       </c>
       <c r="B139" s="41"/>
-      <c r="C139" s="41"/>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="C139" s="41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="41" t="s">
         <v>266</v>
       </c>
       <c r="B140" s="41"/>
-      <c r="C140" s="41"/>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="C140" s="41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="41" t="s">
         <v>267</v>
       </c>
       <c r="B141" s="41"/>
-      <c r="C141" s="41"/>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="C141" s="41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="41" t="s">
         <v>268</v>
       </c>
       <c r="B142" s="41"/>
-      <c r="C142" s="41"/>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="C142" s="41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="41" t="s">
         <v>269</v>
       </c>
       <c r="B143" s="41"/>
-      <c r="C143" s="41"/>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="C143" s="41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="41" t="s">
         <v>270</v>
       </c>
       <c r="B144" s="41"/>
-      <c r="C144" s="41"/>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="C144" s="41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="41" t="s">
         <v>271</v>
       </c>
       <c r="B145" s="41"/>
-      <c r="C145" s="41"/>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="C145" s="41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="41" t="s">
         <v>272</v>
       </c>
       <c r="B146" s="41"/>
-      <c r="C146" s="41"/>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="C146" s="41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="41" t="s">
         <v>273</v>
       </c>
       <c r="B147" s="41"/>
-      <c r="C147" s="41"/>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="C147" s="41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="41" t="s">
         <v>274</v>
       </c>
       <c r="B148" s="41"/>
-      <c r="C148" s="41"/>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="C148" s="41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="41" t="s">
         <v>275</v>
       </c>
       <c r="B149" s="41"/>
-      <c r="C149" s="41"/>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="C149" s="41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="41" t="s">
         <v>276</v>
       </c>
       <c r="B150" s="41"/>
-      <c r="C150" s="41"/>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="C150" s="41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="41" t="s">
         <v>277</v>
       </c>
       <c r="B151" s="41"/>
-      <c r="C151" s="41"/>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="C151" s="41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="41" t="s">
         <v>278</v>
       </c>
       <c r="B152" s="41"/>
-      <c r="C152" s="41"/>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="C152" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="41" t="s">
         <v>279</v>
       </c>
       <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="C153" s="41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="41" t="s">
         <v>280</v>
       </c>
       <c r="B154" s="41"/>
-      <c r="C154" s="41"/>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="C154" s="41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="41" t="s">
         <v>281</v>
       </c>
       <c r="B155" s="41"/>
-      <c r="C155" s="41"/>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="C155" s="41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="41" t="s">
         <v>282</v>
       </c>
       <c r="B156" s="41"/>
-      <c r="C156" s="41"/>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="C156" s="41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="41" t="s">
         <v>283</v>
       </c>
       <c r="B157" s="41"/>
-      <c r="C157" s="41"/>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="C157" s="41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="41" t="s">
         <v>284</v>
       </c>
       <c r="B158" s="41"/>
-      <c r="C158" s="41"/>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="C158" s="41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="41" t="s">
         <v>285</v>
       </c>
       <c r="B159" s="41"/>
-      <c r="C159" s="41"/>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="C159" s="41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="41" t="s">
         <v>286</v>
       </c>
       <c r="B160" s="41"/>
-      <c r="C160" s="41"/>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="C160" s="41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="41" t="s">
         <v>287</v>
       </c>
       <c r="B161" s="41"/>
-      <c r="C161" s="41"/>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="C161" s="41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="41" t="s">
         <v>288</v>
       </c>
       <c r="B162" s="41"/>
-      <c r="C162" s="41"/>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="C162" s="41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="41" t="s">
         <v>289</v>
       </c>
       <c r="B163" s="41"/>
-      <c r="C163" s="41"/>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="C163" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="41" t="s">
         <v>290</v>
       </c>
       <c r="B164" s="41"/>
-      <c r="C164" s="41"/>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="C164" s="41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="41" t="s">
         <v>291</v>
       </c>
       <c r="B165" s="41"/>
-      <c r="C165" s="41"/>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="C165" s="41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="41" t="s">
         <v>292</v>
       </c>
       <c r="B166" s="41"/>
-      <c r="C166" s="41"/>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="C166" s="41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="41" t="s">
         <v>293</v>
       </c>
       <c r="B167" s="41"/>
-      <c r="C167" s="41"/>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="C167" s="41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="41" t="s">
         <v>294</v>
       </c>
       <c r="B168" s="41"/>
-      <c r="C168" s="41"/>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="C168" s="41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="41" t="s">
         <v>295</v>
       </c>
       <c r="B169" s="41"/>
-      <c r="C169" s="41"/>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="C169" s="41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="41" t="s">
         <v>296</v>
       </c>
       <c r="B170" s="41"/>
-      <c r="C170" s="41"/>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="C170" s="41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="41" t="s">
         <v>297</v>
       </c>
       <c r="B171" s="41"/>
-      <c r="C171" s="41"/>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="C171" s="41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="41" t="s">
         <v>298</v>
       </c>
       <c r="B172" s="41"/>
-      <c r="C172" s="41"/>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="C172" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="41" t="s">
         <v>299</v>
       </c>
       <c r="B173" s="41"/>
-      <c r="C173" s="41"/>
+      <c r="C173" s="41" t="s">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>

--- a/_Out/NFDataCfg/Excel_Ini/Language.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Language.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27923" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="338">
   <si>
     <t>Id</t>
   </si>
@@ -1046,13 +1046,16 @@
   </si>
   <si>
     <t>传送营地(三级)</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1835,22 +1838,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="30.46484375" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="2" customFormat="1">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" s="2" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" s="2" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" s="2" customFormat="1">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" s="3" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -1927,9 +1930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" s="3" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -1938,1571 +1941,1582 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:3" s="3" customFormat="1">
+      <c r="A9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1">
+      <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1">
+      <c r="A11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C11" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
+    <row r="12" spans="1:3" s="6" customFormat="1">
+      <c r="A12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C12" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+    <row r="13" spans="1:3" s="6" customFormat="1">
+      <c r="A13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C13" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
+    <row r="14" spans="1:3" s="6" customFormat="1">
+      <c r="A14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C14" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:3" s="6" customFormat="1">
+      <c r="A15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27" t="s">
+    <row r="16" spans="1:3" s="6" customFormat="1">
+      <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29" t="s">
+    <row r="17" spans="1:3" s="7" customFormat="1">
+      <c r="A17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C17" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31" t="s">
+    <row r="18" spans="1:3" s="8" customFormat="1">
+      <c r="A18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C18" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="31" t="s">
+    <row r="19" spans="1:3" s="8" customFormat="1">
+      <c r="A19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31" t="s">
+    <row r="20" spans="1:3" s="8" customFormat="1">
+      <c r="A20" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C20" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="31" t="s">
+    <row r="21" spans="1:3" s="8" customFormat="1">
+      <c r="A21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C21" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="31" t="s">
+    <row r="22" spans="1:3" s="8" customFormat="1">
+      <c r="A22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C22" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="31" t="s">
+    <row r="23" spans="1:3" s="8" customFormat="1">
+      <c r="A23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="31" t="s">
+    <row r="24" spans="1:3" s="8" customFormat="1">
+      <c r="A24" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="31" t="s">
+    <row r="25" spans="1:3" s="8" customFormat="1">
+      <c r="A25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C25" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31" t="s">
+    <row r="26" spans="1:3" s="8" customFormat="1">
+      <c r="A26" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C26" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31" t="s">
+    <row r="27" spans="1:3" s="8" customFormat="1">
+      <c r="A27" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C27" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="31" t="s">
+    <row r="28" spans="1:3" s="8" customFormat="1">
+      <c r="A28" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C28" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="31" t="s">
+    <row r="29" spans="1:3" s="8" customFormat="1">
+      <c r="A29" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C29" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="31" t="s">
+    <row r="30" spans="1:3" s="8" customFormat="1">
+      <c r="A30" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C30" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="31" t="s">
+    <row r="31" spans="1:3" s="8" customFormat="1">
+      <c r="A31" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C31" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33" t="s">
+    <row r="32" spans="1:3" s="8" customFormat="1">
+      <c r="A32" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C32" s="32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="34" t="s">
+    <row r="33" spans="1:3" s="8" customFormat="1">
+      <c r="A33" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C33" s="32" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="34" t="s">
+    <row r="34" spans="1:3" s="8" customFormat="1">
+      <c r="A34" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C34" s="32" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="34" t="s">
+    <row r="35" spans="1:3" s="8" customFormat="1">
+      <c r="A35" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C35" s="32" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+    <row r="36" spans="1:3" s="8" customFormat="1">
+      <c r="A36" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C36" s="32" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="34" t="s">
+    <row r="37" spans="1:3" s="8" customFormat="1">
+      <c r="A37" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C37" s="32" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="34" t="s">
+    <row r="38" spans="1:3" s="8" customFormat="1">
+      <c r="A38" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C38" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="34" t="s">
+    <row r="39" spans="1:3" s="8" customFormat="1">
+      <c r="A39" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C39" s="32" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="34" t="s">
+    <row r="40" spans="1:3" s="8" customFormat="1">
+      <c r="A40" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C40" s="32" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="33" t="s">
+    <row r="41" spans="1:3" s="8" customFormat="1">
+      <c r="A41" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C41" s="32" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="34" t="s">
+    <row r="42" spans="1:3" s="8" customFormat="1">
+      <c r="A42" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C42" s="32" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="34" t="s">
+    <row r="43" spans="1:3" s="8" customFormat="1">
+      <c r="A43" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C43" s="32" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="34" t="s">
+    <row r="44" spans="1:3" s="8" customFormat="1">
+      <c r="A44" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C44" s="32" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="34" t="s">
+    <row r="45" spans="1:3" s="8" customFormat="1">
+      <c r="A45" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C45" s="32" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="34" t="s">
+    <row r="46" spans="1:3" s="8" customFormat="1">
+      <c r="A46" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C46" s="32" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="34" t="s">
+    <row r="47" spans="1:3" s="8" customFormat="1">
+      <c r="A47" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C47" s="32" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="34" t="s">
+    <row r="48" spans="1:3" s="8" customFormat="1">
+      <c r="A48" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C48" s="32" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="34" t="s">
+    <row r="49" spans="1:3" s="8" customFormat="1">
+      <c r="A49" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C49" s="32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="35" t="s">
+    <row r="50" spans="1:3" s="9" customFormat="1">
+      <c r="A50" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C50" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="35" t="s">
+    <row r="51" spans="1:3" s="9" customFormat="1">
+      <c r="A51" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C51" s="36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="35" t="s">
+    <row r="52" spans="1:3" s="9" customFormat="1">
+      <c r="A52" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C52" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="35" t="s">
+    <row r="53" spans="1:3" s="9" customFormat="1">
+      <c r="A53" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C53" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="35" t="s">
+    <row r="54" spans="1:3" s="9" customFormat="1">
+      <c r="A54" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C54" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="35" t="s">
+    <row r="55" spans="1:3" s="9" customFormat="1">
+      <c r="A55" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C55" s="36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="35" t="s">
+    <row r="56" spans="1:3" s="9" customFormat="1">
+      <c r="A56" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C56" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="35" t="s">
+    <row r="57" spans="1:3" s="9" customFormat="1">
+      <c r="A57" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C57" s="36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="35" t="s">
+    <row r="58" spans="1:3" s="9" customFormat="1">
+      <c r="A58" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C58" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="35" t="s">
+    <row r="59" spans="1:3" s="9" customFormat="1">
+      <c r="A59" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C59" s="36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="35" t="s">
+    <row r="60" spans="1:3" s="9" customFormat="1">
+      <c r="A60" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C60" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="35" t="s">
+    <row r="61" spans="1:3" s="9" customFormat="1">
+      <c r="A61" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C61" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="35" t="s">
+    <row r="62" spans="1:3" s="9" customFormat="1">
+      <c r="A62" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C62" s="36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="35" t="s">
+    <row r="63" spans="1:3" s="9" customFormat="1">
+      <c r="A63" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C63" s="36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="35" t="s">
+    <row r="64" spans="1:3" s="9" customFormat="1">
+      <c r="A64" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C64" s="36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="35" t="s">
+    <row r="65" spans="1:3" s="9" customFormat="1">
+      <c r="A65" s="35" t="s">
         <v>90</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="35" t="s">
-        <v>92</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" s="9" customFormat="1">
       <c r="A66" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" s="9" customFormat="1">
       <c r="A67" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" s="9" customFormat="1">
       <c r="A68" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" s="9" customFormat="1">
       <c r="A69" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="27" t="s">
+    <row r="70" spans="1:3" s="9" customFormat="1">
+      <c r="A70" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="5" customFormat="1">
+      <c r="A71" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B71" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C71" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="25" t="s">
+    <row r="72" spans="1:3" s="6" customFormat="1">
+      <c r="A72" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B72" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C72" s="37" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="25" t="s">
+    <row r="73" spans="1:3" s="6" customFormat="1">
+      <c r="A73" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B73" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C73" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="25" t="s">
+    <row r="74" spans="1:3" s="6" customFormat="1">
+      <c r="A74" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B74" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C74" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="25" t="s">
+    <row r="75" spans="1:3" s="6" customFormat="1">
+      <c r="A75" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B75" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C75" s="37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="25" t="s">
+    <row r="76" spans="1:3" s="6" customFormat="1">
+      <c r="A76" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B76" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C76" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="25" t="s">
+    <row r="77" spans="1:3" s="6" customFormat="1">
+      <c r="A77" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B77" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C77" s="37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="25" t="s">
+    <row r="78" spans="1:3" s="6" customFormat="1">
+      <c r="A78" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B78" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="37" t="s">
+      <c r="C78" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="25" t="s">
+    <row r="79" spans="1:3" s="6" customFormat="1">
+      <c r="A79" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B79" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="37" t="s">
+      <c r="C79" s="37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="25" t="s">
+    <row r="80" spans="1:3" customFormat="1">
+      <c r="A80" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B80" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="37" t="s">
+      <c r="C80" s="37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="25" t="s">
+    <row r="81" spans="1:3" customFormat="1">
+      <c r="A81" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B81" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="37" t="s">
+      <c r="C81" s="37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="25" t="s">
+    <row r="82" spans="1:3" customFormat="1">
+      <c r="A82" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B82" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C81" s="37" t="s">
+      <c r="C82" s="37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="25" t="s">
+    <row r="83" spans="1:3" customFormat="1">
+      <c r="A83" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B83" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C83" s="37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="25" t="s">
+    <row r="84" spans="1:3" customFormat="1">
+      <c r="A84" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B84" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C84" s="37" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="25" t="s">
+    <row r="85" spans="1:3" customFormat="1">
+      <c r="A85" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B85" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C85" s="37" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="25" t="s">
+    <row r="86" spans="1:3" customFormat="1">
+      <c r="A86" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B86" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C86" s="37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="25" t="s">
+    <row r="87" spans="1:3" customFormat="1">
+      <c r="A87" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B87" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C87" s="37" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="25" t="s">
+    <row r="88" spans="1:3" customFormat="1">
+      <c r="A88" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B88" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C88" s="37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="25" t="s">
+    <row r="89" spans="1:3" customFormat="1">
+      <c r="A89" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B89" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C89" s="37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="25" t="s">
+    <row r="90" spans="1:3" customFormat="1">
+      <c r="A90" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B90" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C90" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="25" t="s">
+    <row r="91" spans="1:3" customFormat="1">
+      <c r="A91" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B91" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C91" s="37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="25" t="s">
+    <row r="92" spans="1:3" customFormat="1">
+      <c r="A92" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B92" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="37" t="s">
+      <c r="C92" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="25" t="s">
+    <row r="93" spans="1:3" customFormat="1">
+      <c r="A93" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B93" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C93" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="25" t="s">
+    <row r="94" spans="1:3" customFormat="1">
+      <c r="A94" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B94" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C93" s="37" t="s">
+      <c r="C94" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="25" t="s">
+    <row r="95" spans="1:3" customFormat="1">
+      <c r="A95" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B95" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="37" t="s">
+      <c r="C95" s="37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="25" t="s">
+    <row r="96" spans="1:3" customFormat="1">
+      <c r="A96" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B96" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="37" t="s">
+      <c r="C96" s="37" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="25" t="s">
+    <row r="97" spans="1:3" customFormat="1">
+      <c r="A97" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B97" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="C97" s="37" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="25" t="s">
+    <row r="98" spans="1:3" customFormat="1">
+      <c r="A98" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B98" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="37" t="s">
+      <c r="C98" s="37" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="25" t="s">
+    <row r="99" spans="1:3" customFormat="1">
+      <c r="A99" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B99" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C98" s="37" t="s">
+      <c r="C99" s="37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="25" t="s">
+    <row r="100" spans="1:3" customFormat="1">
+      <c r="A100" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B100" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="37" t="s">
+      <c r="C100" s="37" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="25" t="s">
+    <row r="101" spans="1:3" customFormat="1">
+      <c r="A101" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B101" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="C100" s="37" t="s">
+      <c r="C101" s="37" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="25" t="s">
+    <row r="102" spans="1:3" customFormat="1">
+      <c r="A102" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B102" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C102" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="41" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="41" t="s">
         <v>228</v>
-      </c>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="41" t="s">
-        <v>229</v>
       </c>
       <c r="B103" s="41"/>
       <c r="C103" s="41" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B104" s="41"/>
       <c r="C104" s="41" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B105" s="41"/>
       <c r="C105" s="41" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B106" s="41"/>
       <c r="C106" s="41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B107" s="41"/>
       <c r="C107" s="41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B108" s="41"/>
       <c r="C108" s="41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B109" s="41"/>
       <c r="C109" s="41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B110" s="41"/>
       <c r="C110" s="41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B111" s="41"/>
       <c r="C111" s="41" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B112" s="41"/>
       <c r="C112" s="41" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B113" s="41"/>
       <c r="C113" s="41" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B114" s="41"/>
       <c r="C114" s="41" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B115" s="41"/>
       <c r="C115" s="41" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B116" s="41"/>
       <c r="C116" s="41" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B117" s="41"/>
       <c r="C117" s="41" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B118" s="41"/>
       <c r="C118" s="41" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B119" s="41"/>
       <c r="C119" s="41" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B120" s="41"/>
       <c r="C120" s="41" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B121" s="41"/>
       <c r="C121" s="41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B122" s="41"/>
       <c r="C122" s="41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B123" s="41"/>
       <c r="C123" s="41" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B124" s="41"/>
       <c r="C124" s="41" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B125" s="41"/>
       <c r="C125" s="41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B126" s="41"/>
       <c r="C126" s="41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B127" s="41"/>
       <c r="C127" s="41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B128" s="41"/>
       <c r="C128" s="41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B129" s="41"/>
       <c r="C129" s="41" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B130" s="41"/>
       <c r="C130" s="41" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B131" s="41"/>
       <c r="C131" s="41" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B132" s="41"/>
       <c r="C132" s="41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B133" s="41"/>
       <c r="C133" s="41" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B134" s="41"/>
       <c r="C134" s="41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B135" s="41"/>
       <c r="C135" s="41" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B136" s="41"/>
       <c r="C136" s="41" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B137" s="41"/>
       <c r="C137" s="41" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B138" s="41"/>
       <c r="C138" s="41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B139" s="41"/>
       <c r="C139" s="41" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B140" s="41"/>
       <c r="C140" s="41" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B141" s="41"/>
       <c r="C141" s="41" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B142" s="41"/>
       <c r="C142" s="41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B143" s="41"/>
       <c r="C143" s="41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B144" s="41"/>
       <c r="C144" s="41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B145" s="41"/>
       <c r="C145" s="41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B146" s="41"/>
       <c r="C146" s="41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B147" s="41"/>
       <c r="C147" s="41" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B148" s="41"/>
       <c r="C148" s="41" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B149" s="41"/>
       <c r="C149" s="41" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B150" s="41"/>
       <c r="C150" s="41" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B151" s="41"/>
       <c r="C151" s="41" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B152" s="41"/>
       <c r="C152" s="41" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B153" s="41"/>
       <c r="C153" s="41" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B154" s="41"/>
       <c r="C154" s="41" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B155" s="41"/>
       <c r="C155" s="41" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B156" s="41"/>
       <c r="C156" s="41" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B157" s="41"/>
       <c r="C157" s="41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B158" s="41"/>
       <c r="C158" s="41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B159" s="41"/>
       <c r="C159" s="41" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B160" s="41"/>
       <c r="C160" s="41" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B161" s="41"/>
       <c r="C161" s="41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B162" s="41"/>
       <c r="C162" s="41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B163" s="41"/>
       <c r="C163" s="41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B164" s="41"/>
       <c r="C164" s="41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B165" s="41"/>
       <c r="C165" s="41" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B166" s="41"/>
       <c r="C166" s="41" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B167" s="41"/>
       <c r="C167" s="41" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B168" s="41"/>
       <c r="C168" s="41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B169" s="41"/>
       <c r="C169" s="41" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B170" s="41"/>
       <c r="C170" s="41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B171" s="41"/>
       <c r="C171" s="41" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B172" s="41"/>
       <c r="C172" s="41" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B173" s="41"/>
       <c r="C173" s="41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="B174" s="41"/>
+      <c r="C174" s="41" t="s">
         <v>333</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
